--- a/MetricStreamlit/Data.xlsx
+++ b/MetricStreamlit/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andy\Documents\GitHub\Metric-Software-Security-Assessment-GUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andy\Documents\GitHub\Metric-Software-Security-Assessment-GUI\MetricStreamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5276C05-9D38-43BD-A749-90ABC4BC4C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BDF1D8-BB6E-476D-BFB7-1CC92C56DD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1242DA85-62BF-48DA-B181-DB1BA7FE845B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="152">
   <si>
     <t>Comparison Number</t>
   </si>
@@ -490,24 +490,6 @@
   </si>
   <si>
     <t>Average Increase from Vulnerable to Fixed (Percent)</t>
-  </si>
-  <si>
-    <t>Quartile 1</t>
-  </si>
-  <si>
-    <t>Contains outlier</t>
-  </si>
-  <si>
-    <t>Quartile 3</t>
-  </si>
-  <si>
-    <t>Inner Quartile Range</t>
-  </si>
-  <si>
-    <t>Upper Bound</t>
-  </si>
-  <si>
-    <t>Lower Bound</t>
   </si>
 </sst>
 </file>
@@ -1065,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7242228-6BDF-4C96-ACBB-73F55B4CB8FB}">
   <dimension ref="A1:CE134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="V130" sqref="V130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33199,14 +33181,10 @@
       <c r="CE129" s="11"/>
     </row>
     <row r="130" spans="1:83" ht="17.25" thickBot="1">
-      <c r="A130" s="11" t="s">
-        <v>152</v>
-      </c>
+      <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="10"/>
-      <c r="D130" s="7">
-        <v>2</v>
-      </c>
+      <c r="D130" s="7"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
@@ -33224,9 +33202,7 @@
       <c r="S130" s="11"/>
       <c r="T130" s="11"/>
       <c r="U130" s="11"/>
-      <c r="V130" s="33" t="s">
-        <v>153</v>
-      </c>
+      <c r="V130" s="33"/>
       <c r="W130" s="11"/>
       <c r="X130" s="11"/>
       <c r="Y130" s="11"/>
@@ -33290,14 +33266,10 @@
       <c r="CE130" s="11"/>
     </row>
     <row r="131" spans="1:83" ht="17.25" thickBot="1">
-      <c r="A131" s="11" t="s">
-        <v>154</v>
-      </c>
+      <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="10"/>
-      <c r="D131" s="7">
-        <v>4</v>
-      </c>
+      <c r="D131" s="7"/>
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
@@ -33379,9 +33351,7 @@
       <c r="CE131" s="11"/>
     </row>
     <row r="132" spans="1:83" ht="17.25" thickBot="1">
-      <c r="A132" s="33" t="s">
-        <v>155</v>
-      </c>
+      <c r="A132" s="33"/>
       <c r="B132" s="11"/>
       <c r="C132" s="10"/>
       <c r="D132" s="11"/>
@@ -33465,10 +33435,8 @@
       <c r="CD132" s="11"/>
       <c r="CE132" s="11"/>
     </row>
-    <row r="133" spans="1:83" ht="27.75" thickBot="1">
-      <c r="A133" s="11" t="s">
-        <v>156</v>
-      </c>
+    <row r="133" spans="1:83" ht="17.25" thickBot="1">
+      <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="10"/>
       <c r="D133" s="11"/>
@@ -33552,10 +33520,8 @@
       <c r="CD133" s="11"/>
       <c r="CE133" s="11"/>
     </row>
-    <row r="134" spans="1:83" ht="27.75" thickBot="1">
-      <c r="A134" s="11" t="s">
-        <v>157</v>
-      </c>
+    <row r="134" spans="1:83" ht="17.25" thickBot="1">
+      <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="10"/>
       <c r="D134" s="11"/>
